--- a/data_samples/afl_ground_names.xlsx
+++ b/data_samples/afl_ground_names.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\AFL-Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ML101\data_samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2A5397-03E6-48C3-85BC-6AA587BB56EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C367A2B8-F3BB-4E24-827E-6D6BA6BC6F3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
   <si>
     <t>Telstra Dome</t>
   </si>
@@ -217,6 +217,9 @@
   </si>
   <si>
     <t>Telstra Stadium</t>
+  </si>
+  <si>
+    <t>Ground_Id</t>
   </si>
 </sst>
 </file>
@@ -550,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="G25" sqref="G25:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,9 +567,10 @@
     <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -585,29 +589,41 @@
       <c r="F1" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -617,8 +633,11 @@
       <c r="C5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -628,8 +647,11 @@
       <c r="C6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -639,24 +661,33 @@
       <c r="C7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -666,48 +697,66 @@
       <c r="C10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>53</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -717,61 +766,85 @@
       <c r="C16" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>29</v>
       </c>
       <c r="B18" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>31</v>
       </c>
       <c r="B19" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
       <c r="B20" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>36</v>
       </c>
       <c r="B21" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>38</v>
       </c>
       <c r="B22" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>39</v>
       </c>
       <c r="B23" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -784,16 +857,22 @@
       <c r="D24" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>44</v>
       </c>
       <c r="B25" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -809,15 +888,24 @@
       <c r="E26" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>51</v>
+      </c>
+      <c r="G28">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/data_samples/afl_ground_names.xlsx
+++ b/data_samples/afl_ground_names.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ML101\data_samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C367A2B8-F3BB-4E24-827E-6D6BA6BC6F3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237B07DA-2580-4D65-A57A-2FBF5FBB2190}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>Telstra Dome</t>
   </si>
@@ -553,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25:G28"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,13 +653,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -667,245 +664,223 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
       </c>
       <c r="G8">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G10">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G12">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G13">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>59</v>
       </c>
       <c r="G14">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G15">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="G16">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
       </c>
       <c r="G17">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G18">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G19">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="G20">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G21">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" t="s">
+        <v>41</v>
       </c>
       <c r="G22">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G23">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D24" t="s">
-        <v>41</v>
+        <v>47</v>
+      </c>
+      <c r="E24" t="s">
+        <v>48</v>
       </c>
       <c r="G24">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G25">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G26">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>50</v>
-      </c>
-      <c r="G27">
         <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>51</v>
-      </c>
-      <c r="G28">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/data_samples/afl_ground_names.xlsx
+++ b/data_samples/afl_ground_names.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ML101\data_samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237B07DA-2580-4D65-A57A-2FBF5FBB2190}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119618B0-840E-47F2-87B7-B08A863609AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
   <si>
     <t>Telstra Dome</t>
   </si>
@@ -220,6 +220,12 @@
   </si>
   <si>
     <t>Ground_Id</t>
+  </si>
+  <si>
+    <t>Adelaide Arena</t>
+  </si>
+  <si>
+    <t>Titanium Security Arena</t>
   </si>
 </sst>
 </file>
@@ -553,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,6 +889,20 @@
         <v>26</v>
       </c>
     </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data_samples/afl_ground_names.xlsx
+++ b/data_samples/afl_ground_names.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ML101\data_samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119618B0-840E-47F2-87B7-B08A863609AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE716CB-0096-4ABD-AD53-D779B4ABE37A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
   <si>
     <t>Telstra Dome</t>
   </si>
@@ -226,6 +226,9 @@
   </si>
   <si>
     <t>Titanium Security Arena</t>
+  </si>
+  <si>
+    <t>Cazaly’s Stadium</t>
   </si>
 </sst>
 </file>
@@ -561,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,6 +791,9 @@
       <c r="B18" t="s">
         <v>34</v>
       </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
       <c r="G18">
         <v>18</v>
       </c>
